--- a/biology/Médecine/1368_en_santé_et_médecine/1368_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1368_en_santé_et_médecine/1368_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1368_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1368_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1368 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1368_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1368_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le concile de Lavaur fixe durablement le statut des lépreux[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le concile de Lavaur fixe durablement le statut des lépreux.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1368_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1368_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Haji Zeynalabdin Attar rédige son traité de médecine Ikhtiyarat-i Badii, ouvrage très populaire au Moyen Âge en Azerbaïdjan[2],[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Haji Zeynalabdin Attar rédige son traité de médecine Ikhtiyarat-i Badii, ouvrage très populaire au Moyen Âge en Azerbaïdjan,.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1368_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1368_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,11 +587,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>23 juillet : Guy de Chauliac (né vers 1298), chirurgien français, auteur de la Chirurgia magna, achevée en 1363.
-Vers 1364-1368 : Maynus de Maynis[4],[5] (né à une date inconnue), astrologue et médecin français, maître régent à la faculté de médecine de Paris, médecin des Visconti, auteur d'un « Régime de santé » (Regimen sanitatis Magninus Mediolanensis[6]) et d'un « Traité des eaux artificielles » (De aquis artificialibus[7]).
-Après 1368[8] (ou en 1369[9]) : Ibn Hatima (né vers 1300[9]), poète et médecin arabo-andalou, auteur du Taḥṣīl ġaraḍ al-qāṣid fī tafṣīl al-maraḍ al-wāfid (« Réponse à la demande de qui désire étudier la maladie venue d'ailleurs »), important témoignage sur la peste noire en Espagne musulmane[8].</t>
+Vers 1364-1368 : Maynus de Maynis, (né à une date inconnue), astrologue et médecin français, maître régent à la faculté de médecine de Paris, médecin des Visconti, auteur d'un « Régime de santé » (Regimen sanitatis Magninus Mediolanensis) et d'un « Traité des eaux artificielles » (De aquis artificialibus).
+Après 1368 (ou en 1369) : Ibn Hatima (né vers 1300), poète et médecin arabo-andalou, auteur du Taḥṣīl ġaraḍ al-qāṣid fī tafṣīl al-maraḍ al-wāfid (« Réponse à la demande de qui désire étudier la maladie venue d'ailleurs »), important témoignage sur la peste noire en Espagne musulmane.</t>
         </is>
       </c>
     </row>
